--- a/Market Fundamentals/Wind_Production_Forecast/Input_Wind_dataset_15min.xlsx
+++ b/Market Fundamentals/Wind_Production_Forecast/Input_Wind_dataset_15min.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/Market Fundamentals/Wind_Production_Forecast/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abbcgroup-my.sharepoint.com/personal/andrei_ionita_adrem_ro/Documents/Desktop/ML/forecast_app/Market Fundamentals/Wind_Production_Forecast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C4AFBB6A-37B7-421A-9E82-9BBB2D73352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0ECA4AF-8111-4E46-82E5-897C7412A1E5}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{C4AFBB6A-37B7-421A-9E82-9BBB2D73352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FEFC34C-84BF-4B2B-91A2-723F687A28EB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01C745A7-D25A-4884-BCF6-480664B7FA71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{01C745A7-D25A-4884-BCF6-480664B7FA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Data</t>
   </si>
@@ -44,19 +44,43 @@
     <t>Interval</t>
   </si>
   <si>
-    <t>wind_direction_100m</t>
-  </si>
-  <si>
-    <t>wind_direction_10m</t>
-  </si>
-  <si>
-    <t>wind_speed_100m</t>
-  </si>
-  <si>
-    <t>wind_speed_10m</t>
-  </si>
-  <si>
-    <t>temperature</t>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>air_temp_Cogealac</t>
+  </si>
+  <si>
+    <t>wind_direction_100m_Cogealac</t>
+  </si>
+  <si>
+    <t>wind_direction_10m_Cogealac</t>
+  </si>
+  <si>
+    <t>wind_speed_100m_Cogealac</t>
+  </si>
+  <si>
+    <t>wind_speed_10m_Cogealac</t>
+  </si>
+  <si>
+    <t>wind_gust_Cogealac</t>
+  </si>
+  <si>
+    <t>air_temp_Focsani</t>
+  </si>
+  <si>
+    <t>wind_direction_100m_Focsani</t>
+  </si>
+  <si>
+    <t>wind_direction_10m_Focsani</t>
+  </si>
+  <si>
+    <t>wind_speed_100m_Focsani</t>
+  </si>
+  <si>
+    <t>wind_speed_10m_Focsani</t>
+  </si>
+  <si>
+    <t>wind_gust_Focsani</t>
   </si>
 </sst>
 </file>
@@ -444,34 +468,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302FBC5B-3DB7-408F-AB07-B311D2BE7BC3}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -482,6 +514,30 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
